--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/6 Uso de Terceros/2 DOCUMENTAR  TERCEROS.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/6 Uso de Terceros/2 DOCUMENTAR  TERCEROS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\TAREA 1 ACTUALIZAR PT\1 PAPELES DE TRABAJO AUDITORIA\2 ESTRATEGIA Y PLAN DE AUDITORIA\6 Uso del Trabajo de Terceros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\6 Uso de Terceros\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54688BCA-9D2C-4034-AA47-41F8384D9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTAR TERCEROS" sheetId="2" r:id="rId1"/>
@@ -187,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,12 +363,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -393,9 +388,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,6 +399,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +444,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -754,11 +761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +787,7 @@
     <row r="4" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -794,37 +801,37 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="27"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="28"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="29" t="s">
         <v>39</v>
       </c>
+      <c r="C10" s="29"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -835,7 +842,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="11"/>
@@ -843,12 +850,12 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -857,214 +864,214 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:16" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="2:16" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-    </row>
-    <row r="24" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
     </row>
     <row r="29" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
+      <c r="B35" s="16"/>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+    <row r="37" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+    <row r="41" spans="2:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
+      <c r="B43" s="16"/>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
+      <c r="B47" s="16"/>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
+      <c r="B51" s="16"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
+      <c r="B55" s="16"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
@@ -1074,18 +1081,18 @@
       <c r="D58" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="28"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
@@ -1094,9 +1101,15 @@
       <c r="D60" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="19"/>
+      <c r="E60" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
